--- a/myfuturejobs-insights/Skill Count v2.xlsx
+++ b/myfuturejobs-insights/Skill Count v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/myfuturejobs-insights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB32CF7-184E-FD40-9816-5E1AF230FA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A406DF-7E1A-C745-9787-ADEAE1212DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3829,11 +3829,12 @@
   <dimension ref="A1:K970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
